--- a/data/trans_orig/P6514-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B36DC7BC-82AF-4CB2-BDF4-6C491B1C253A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E383EF-C57D-4981-A038-FBB8578F8F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F356E9B1-3C80-4EE5-A942-A3BE59DA3387}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10B7359D-A7D5-4469-B52C-917F07EDAD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>33,21%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
   </si>
   <si>
     <t>48,1%</t>
   </si>
   <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>30,53%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>26,68%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>29,42%</t>
   </si>
   <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,388 +134,382 @@
     <t>21,0%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>21,37%</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9D6695-2B36-434E-98F1-96F8AC62558C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B97E73-331C-4EB2-9C31-271D9A750A37}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1395,10 +1389,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1413,13 +1407,13 @@
         <v>286829</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>105</v>
@@ -1428,13 +1422,13 @@
         <v>109553</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>384</v>
@@ -1443,13 +1437,13 @@
         <v>396381</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1464,13 +1458,13 @@
         <v>158934</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -1479,13 +1473,13 @@
         <v>41573</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>189</v>
@@ -1494,13 +1488,13 @@
         <v>200506</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1556,7 +1550,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1568,13 +1562,13 @@
         <v>134683</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -1583,13 +1577,13 @@
         <v>108230</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>231</v>
@@ -1598,13 +1592,13 @@
         <v>242913</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,13 +1613,13 @@
         <v>156501</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>103</v>
@@ -1634,13 +1628,13 @@
         <v>106690</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>255</v>
@@ -1649,13 +1643,13 @@
         <v>263190</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,13 +1664,13 @@
         <v>81561</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -1685,13 +1679,13 @@
         <v>58604</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -1700,13 +1694,13 @@
         <v>140166</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,13 +1715,13 @@
         <v>32565</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -1736,13 +1730,13 @@
         <v>14618</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -1751,13 +1745,13 @@
         <v>47183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,13 +1819,13 @@
         <v>556223</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>381</v>
@@ -1840,13 +1834,13 @@
         <v>400208</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>911</v>
@@ -1855,13 +1849,13 @@
         <v>956431</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1870,13 @@
         <v>644307</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>344</v>
@@ -1891,13 +1885,13 @@
         <v>358408</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>966</v>
@@ -1906,13 +1900,13 @@
         <v>1002715</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1921,13 @@
         <v>446868</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>184</v>
@@ -1942,13 +1936,13 @@
         <v>192506</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>613</v>
@@ -1957,13 +1951,13 @@
         <v>639374</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1972,13 @@
         <v>248527</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -1993,13 +1987,13 @@
         <v>70294</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -2008,13 +2002,13 @@
         <v>318821</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,7 +2064,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6514-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41E383EF-C57D-4981-A038-FBB8578F8F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00868EB2-804C-43CC-BF10-FE35A161419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10B7359D-A7D5-4469-B52C-917F07EDAD8C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A4B2353-86E3-4600-BE78-C10160D74419}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>33,21%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
   </si>
   <si>
     <t>48,1%</t>
   </si>
   <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>30,53%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
   </si>
   <si>
     <t>26,68%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
   </si>
   <si>
     <t>29,42%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>21,0%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>15,97%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,352 +164,355 @@
     <t>15,26%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
   </si>
   <si>
     <t>36,17%</t>
   </si>
   <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B97E73-331C-4EB2-9C31-271D9A750A37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0C4EF-4E01-4093-94BD-0631EC00529E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1389,10 +1392,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,13 +1410,13 @@
         <v>286829</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>105</v>
@@ -1422,13 +1425,13 @@
         <v>109553</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>384</v>
@@ -1437,13 +1440,13 @@
         <v>396381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1458,13 +1461,13 @@
         <v>158934</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -1646,10 +1649,10 @@
         <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,13 +1667,13 @@
         <v>81561</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -1679,13 +1682,13 @@
         <v>58604</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -1694,13 +1697,13 @@
         <v>140166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1718,13 @@
         <v>32565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -1730,13 +1733,13 @@
         <v>14618</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -1745,13 +1748,13 @@
         <v>47183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1822,13 @@
         <v>556223</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>381</v>
@@ -1834,13 +1837,13 @@
         <v>400208</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>911</v>
@@ -1849,13 +1852,13 @@
         <v>956431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1873,13 @@
         <v>644307</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>344</v>
@@ -1885,13 +1888,13 @@
         <v>358408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>966</v>
@@ -1900,13 +1903,13 @@
         <v>1002715</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1924,13 @@
         <v>446868</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>184</v>
@@ -1936,13 +1939,13 @@
         <v>192506</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>613</v>
@@ -1951,13 +1954,13 @@
         <v>639374</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1975,13 @@
         <v>248527</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -1987,13 +1990,13 @@
         <v>70294</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -2002,13 +2005,13 @@
         <v>318821</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6514-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00868EB2-804C-43CC-BF10-FE35A161419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA310A7-E745-4543-8691-EBE529352C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A4B2353-86E3-4600-BE78-C10160D74419}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16A26AC7-D00E-4285-9AB8-B6B999659611}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
   <si>
     <t>Población según trabajar con plazos inflexibles durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,88%)</t>
   </si>
@@ -74,445 +74,448 @@
     <t>33,21%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>48,1%</t>
   </si>
   <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
   </si>
   <si>
     <t>33,98%</t>
   </si>
   <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>35,09%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
   </si>
   <si>
     <t>34,37%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0C4EF-4E01-4093-94BD-0631EC00529E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDBF3FA-14F1-4B27-9AB9-B60D40E3FA7F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1467,7 +1470,7 @@
         <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -1476,13 +1479,13 @@
         <v>41573</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>189</v>
@@ -1491,13 +1494,13 @@
         <v>200506</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,7 +1556,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1565,13 +1568,13 @@
         <v>134683</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -1580,13 +1583,13 @@
         <v>108230</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>231</v>
@@ -1595,13 +1598,13 @@
         <v>242913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,13 +1619,13 @@
         <v>156501</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>103</v>
@@ -1631,13 +1634,13 @@
         <v>106690</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>255</v>
@@ -1646,13 +1649,13 @@
         <v>263190</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,13 +1670,13 @@
         <v>81561</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -1682,13 +1685,13 @@
         <v>58604</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>134</v>
@@ -1697,13 +1700,13 @@
         <v>140166</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1721,13 @@
         <v>32565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -1733,13 +1736,13 @@
         <v>14618</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -1748,13 +1751,13 @@
         <v>47183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,13 +1825,13 @@
         <v>556223</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="H19" s="7">
         <v>381</v>
@@ -1852,13 +1855,13 @@
         <v>956431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,13 +1876,13 @@
         <v>644307</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>344</v>
@@ -1888,13 +1891,13 @@
         <v>358408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>966</v>
@@ -1903,13 +1906,13 @@
         <v>1002715</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1927,13 @@
         <v>446868</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>184</v>
@@ -1939,13 +1942,13 @@
         <v>192506</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>613</v>
@@ -1954,13 +1957,13 @@
         <v>639374</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1978,13 @@
         <v>248527</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -1990,13 +1993,13 @@
         <v>70294</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>302</v>
@@ -2005,13 +2008,13 @@
         <v>318821</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2070,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6514-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6514-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA310A7-E745-4543-8691-EBE529352C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B916876F-30C9-4CF4-81EC-C505CE276E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16A26AC7-D00E-4285-9AB8-B6B999659611}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{88BBFA5B-4399-44A1-A141-D3D9779103F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDBF3FA-14F1-4B27-9AB9-B60D40E3FA7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759C453B-6C9A-4C2B-8FDB-5BE9C18A116B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
